--- a/Week-2/Restaurant/Restaurant/menu.xlsx
+++ b/Week-2/Restaurant/Restaurant/menu.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <x:si>
     <x:t>Dish</x:t>
   </x:si>
@@ -74,6 +74,15 @@
   </x:si>
   <x:si>
     <x:t>7</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Chorizo</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tikka Masala</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Palak Paneer</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -560,6 +569,48 @@
         <x:v>0</x:v>
       </x:c>
     </x:row>
+    <x:row r="9" spans="1:4">
+      <x:c r="A9" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="B9" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C9" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D9" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:4">
+      <x:c r="A10" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="B10" s="0" t="n">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C10" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D10" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:4">
+      <x:c r="A11" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="B11" s="0" t="n">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C11" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="D11" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
